--- a/data/trans_orig/P36BPD05_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD05_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7A82029-CC98-433A-AF37-9AA97C57EF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C856F557-4533-4C60-809F-E949382F068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{84FAE95E-84F3-4458-8368-0FD4BFF5EC66}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0A17947-FC3E-4D1B-A56E-A8A6475ACA71}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>36,56%</t>
   </si>
   <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>27,85%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>63,44%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>72,15%</t>
   </si>
   <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>28,67%</t>
   </si>
   <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
   </si>
   <si>
     <t>71,33%</t>
   </si>
   <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
   </si>
   <si>
     <t>73,05%</t>
   </si>
   <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>38,1%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
   </si>
   <si>
     <t>35,18%</t>
   </si>
   <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
   </si>
   <si>
     <t>61,9%</t>
   </si>
   <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>64,82%</t>
   </si>
   <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>31,58%</t>
   </si>
   <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
   </si>
   <si>
     <t>34,45%</t>
   </si>
   <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
   </si>
   <si>
     <t>33,14%</t>
   </si>
   <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
   </si>
   <si>
     <t>68,42%</t>
   </si>
   <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>65,55%</t>
   </si>
   <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>66,86%</t>
   </si>
   <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>33,24%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
   </si>
   <si>
     <t>29,52%</t>
   </si>
   <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
   </si>
   <si>
     <t>31,22%</t>
   </si>
   <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
   </si>
   <si>
     <t>66,76%</t>
   </si>
   <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>70,48%</t>
   </si>
   <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
   </si>
   <si>
     <t>68,78%</t>
   </si>
   <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
   </si>
   <si>
     <t>33,73%</t>
   </si>
   <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>30,51%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
   </si>
   <si>
     <t>32,02%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
   </si>
   <si>
     <t>66,27%</t>
   </si>
   <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
   </si>
   <si>
     <t>67,98%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED054886-94AF-44AF-8C16-2A29E200ED56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB6D939-4733-4CD1-B45A-27A895738990}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1492,7 +1492,7 @@
         <v>1277</v>
       </c>
       <c r="N14" s="7">
-        <v>1070131</v>
+        <v>1070130</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1543,7 +1543,7 @@
         <v>1720</v>
       </c>
       <c r="N15" s="7">
-        <v>1600662</v>
+        <v>1600661</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1772,7 +1772,7 @@
         <v>2344</v>
       </c>
       <c r="D20" s="7">
-        <v>2237832</v>
+        <v>2237833</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -1823,7 +1823,7 @@
         <v>3366</v>
       </c>
       <c r="D21" s="7">
-        <v>3376645</v>
+        <v>3376646</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P36BPD05_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD05_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C856F557-4533-4C60-809F-E949382F068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3695C40-DE4C-4975-A9E3-3C324984DCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0A17947-FC3E-4D1B-A56E-A8A6475ACA71}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6D9009EF-17FE-43E1-8F06-7FBF1BB9DA44}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según el número de raciones de carnes rojas, hamburguesas, salchichas o embutidos que consume al día en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Una o más de una ración</t>
   </si>
   <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
   </si>
   <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB6D939-4733-4CD1-B45A-27A895738990}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A8AD9-6034-4221-AAD7-DDDBDC960138}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="D4" s="7">
-        <v>36665</v>
+        <v>185897</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="I4" s="7">
-        <v>27688</v>
+        <v>162163</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>82</v>
+        <v>458</v>
       </c>
       <c r="N4" s="7">
-        <v>64353</v>
+        <v>348060</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>82</v>
+        <v>534</v>
       </c>
       <c r="D5" s="7">
-        <v>63633</v>
+        <v>447366</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>195</v>
+        <v>968</v>
       </c>
       <c r="I5" s="7">
-        <v>103045</v>
+        <v>510228</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>277</v>
+        <v>1502</v>
       </c>
       <c r="N5" s="7">
-        <v>166678</v>
+        <v>957594</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>116</v>
+        <v>727</v>
       </c>
       <c r="D6" s="7">
-        <v>100298</v>
+        <v>633263</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1233</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>672391</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>359</v>
+        <v>1960</v>
       </c>
       <c r="N6" s="7">
-        <v>231031</v>
+        <v>1305654</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="D7" s="7">
-        <v>157439</v>
+        <v>571817</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>217</v>
+        <v>462</v>
       </c>
       <c r="I7" s="7">
-        <v>149432</v>
+        <v>302661</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>376</v>
+        <v>762</v>
       </c>
       <c r="N7" s="7">
-        <v>306871</v>
+        <v>874478</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>452</v>
+        <v>659</v>
       </c>
       <c r="D8" s="7">
-        <v>391752</v>
+        <v>617498</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>773</v>
+        <v>1053</v>
       </c>
       <c r="I8" s="7">
-        <v>439905</v>
+        <v>654900</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1225</v>
+        <v>1712</v>
       </c>
       <c r="N8" s="7">
-        <v>831657</v>
+        <v>1272398</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>959</v>
       </c>
       <c r="D9" s="7">
-        <v>549191</v>
+        <v>1189315</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>990</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>589337</v>
+        <v>957561</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1601</v>
+        <v>2474</v>
       </c>
       <c r="N9" s="7">
-        <v>1138528</v>
+        <v>2146876</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="D10" s="7">
-        <v>394477</v>
+        <v>218681</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>462</v>
+        <v>231</v>
       </c>
       <c r="I10" s="7">
-        <v>342371</v>
+        <v>377782</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>762</v>
+        <v>443</v>
       </c>
       <c r="N10" s="7">
-        <v>736848</v>
+        <v>596463</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>659</v>
+        <v>463</v>
       </c>
       <c r="D11" s="7">
-        <v>640904</v>
+        <v>484724</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1053</v>
+        <v>814</v>
       </c>
       <c r="I11" s="7">
-        <v>716499</v>
+        <v>554519</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1712</v>
+        <v>1277</v>
       </c>
       <c r="N11" s="7">
-        <v>1357403</v>
+        <v>1039243</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>959</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1035381</v>
+        <v>703405</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1045</v>
       </c>
       <c r="I12" s="7">
-        <v>1058870</v>
+        <v>932301</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2474</v>
+        <v>1720</v>
       </c>
       <c r="N12" s="7">
-        <v>2094251</v>
+        <v>1635706</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="D13" s="7">
-        <v>229710</v>
+        <v>294785</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>231</v>
+        <v>405</v>
       </c>
       <c r="I13" s="7">
-        <v>300821</v>
+        <v>352075</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>443</v>
+        <v>722</v>
       </c>
       <c r="N13" s="7">
-        <v>530531</v>
+        <v>646860</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>463</v>
+        <v>688</v>
       </c>
       <c r="D14" s="7">
-        <v>497699</v>
+        <v>631041</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>814</v>
+        <v>1149</v>
       </c>
       <c r="I14" s="7">
-        <v>572432</v>
+        <v>738340</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1277</v>
+        <v>1837</v>
       </c>
       <c r="N14" s="7">
-        <v>1070130</v>
+        <v>1369381</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>727409</v>
+        <v>925826</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1045</v>
+        <v>1554</v>
       </c>
       <c r="I15" s="7">
-        <v>873253</v>
+        <v>1090415</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1720</v>
+        <v>2559</v>
       </c>
       <c r="N15" s="7">
-        <v>1600661</v>
+        <v>2016241</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>317</v>
+        <v>1022</v>
       </c>
       <c r="D16" s="7">
-        <v>320522</v>
+        <v>1271181</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1363</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1194680</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>405</v>
-      </c>
-      <c r="I16" s="7">
-        <v>338209</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>2385</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2465861</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>722</v>
-      </c>
-      <c r="N16" s="7">
-        <v>658730</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>688</v>
+        <v>2344</v>
       </c>
       <c r="D17" s="7">
-        <v>643845</v>
+        <v>2180628</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3984</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2457987</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>1149</v>
-      </c>
-      <c r="I17" s="7">
-        <v>807301</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6328</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4638616</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1837</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1451146</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3366</v>
       </c>
       <c r="D18" s="7">
-        <v>964367</v>
+        <v>3451809</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1554</v>
+        <v>5347</v>
       </c>
       <c r="I18" s="7">
-        <v>1145510</v>
+        <v>3652667</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2559</v>
+        <v>8713</v>
       </c>
       <c r="N18" s="7">
-        <v>2109876</v>
+        <v>7104477</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1022</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1138813</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1363</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1158521</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2385</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2297333</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2344</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2237833</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3984</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2639182</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6328</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4877015</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3366</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3376646</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5347</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3797703</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8713</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7174348</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
